--- a/assets/files/CV5.xlsx
+++ b/assets/files/CV5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9816" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,1998 +626,1998 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>25.125628140703519</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>52.763819095477388</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>16.582914572864322</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>4.0201005025125625</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>1.5075376884422111</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>22.340425531914892</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>58.51063829787234</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>15.957446808510639</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>3.1914893617021276</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>188</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>23.772609819121445</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>55.555555555555557</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>16.279069767441861</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>3.6175710594315245</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>0.77519379844961245</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>41.76706827309237</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>23.293172690763051</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>6.4257028112449799</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>27.309236947791163</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>1.2048192771084338</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>249</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>30.578512396694215</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>33.057851239669418</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>16.528925619834709</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>17.355371900826448</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>2.4793388429752068</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>121</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>38.108108108108105</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>26.486486486486488</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>9.7297297297297298</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>24.054054054054053</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>1.6216216216216217</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>18.961625282167041</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>44.469525959367942</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>22.573363431151243</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>12.18961625282167</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>1.8058690744920993</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>443</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>24.481327800829874</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>48.962655601659748</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>19.087136929460581</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>6.6390041493775938</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>0.82987551867219922</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>241</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>20.906432748538013</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>46.05263157894737</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>21.345029239766081</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>10.23391812865497</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>1.4619883040935673</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>48.101265822784811</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>37.974683544303801</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>13.924050632911392</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>34.532374100719423</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>42.446043165467628</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>20.503597122302157</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>2.1582733812949639</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>0.35971223021582732</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>37.535014005602243</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>41.456582633053223</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>19.047619047619047</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>1.680672268907563</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>0.28011204481792717</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>16.216216216216218</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>42.702702702702702</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>29.189189189189189</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>6.4864864864864868</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>5.4054054054054053</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>185</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>18.691588785046729</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>40.186915887850468</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>29.906542056074766</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>8.4112149532710276</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>2.8037383177570092</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>107</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>17.123287671232877</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>41.780821917808218</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>29.452054794520549</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>7.1917808219178081</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>4.4520547945205475</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>27.179487179487179</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>48.717948717948715</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>11.794871794871796</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>9.2307692307692299</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>3.0769230769230771</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>15.96244131455399</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>59.154929577464792</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>13.145539906103286</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>8.92018779342723</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>2.816901408450704</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>21.323529411764707</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>54.166666666666664</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>12.5</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>9.0686274509803919</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>2.9411764705882355</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>16.279069767441861</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>53.488372093023258</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>18.604651162790699</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>9.3023255813953494</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>2.3255813953488373</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>15.596330275229358</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>53.51681957186544</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>22.324159021406729</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>8.2568807339449535</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>0.3058103975535168</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>15.675675675675675</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>53.513513513513516</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>21.891891891891891</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>8.378378378378379</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>0.54054054054054057</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>25.306122448979593</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>47.346938775510203</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>6.9387755102040813</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>16.326530612244898</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>4.0816326530612246</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>245</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>23.741007194244606</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>53.956834532374103</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>10.791366906474821</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>11.510791366906474</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>24.739583333333332</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>49.739583333333336</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>14.583333333333334</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>2.6041666666666665</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>35.632183908045974</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>52.873563218390807</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>6.8965517241379306</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>24.199288256227756</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>56.227758007117437</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>9.6085409252669045</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>8.5409252669039137</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>1.4234875444839858</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>26.902173913043477</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>55.434782608695649</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>8.9673913043478262</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>7.3369565217391308</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>1.3586956521739131</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>11.557788944723619</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>44.723618090452263</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>12.060301507537689</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>31.658291457286431</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>199</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>5</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>40</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>52.777777777777779</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>2.2222222222222223</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>180</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>8.4432717678100264</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>42.480211081794195</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>31.398416886543536</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>17.678100263852244</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>47.345132743362832</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>19.911504424778762</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>32.743362831858406</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>10.38961038961039</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>61.688311688311686</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>24.025974025974026</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>3.8961038961038961</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>32.368421052631582</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>36.842105263157897</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>9.7368421052631575</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>21.05263157894737</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>18.502202643171806</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>41.85022026431718</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>24.229074889867842</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>7.0484581497797354</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>8.3700440528634363</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>227</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>21.818181818181817</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>45.454545454545453</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>28.181818181818183</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>4.5454545454545459</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
         <v>110</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>19.584569732937684</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>43.026706231454007</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>25.519287833827892</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>6.2314540059347179</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>5.637982195845697</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>21.951219512195124</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>52.032520325203251</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>10.56910569105691</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>11.382113821138212</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>4.0650406504065044</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>21.6</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>46.8</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>8.4</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>20</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>3.2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>250</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>21.715817694369974</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>48.525469168900806</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>9.1152815013404833</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>17.158176943699733</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>3.4852546916890081</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>39.583333333333336</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>43.75</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>10.416666666666666</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>44.477611940298509</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>48.35820895522388</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>4.4776119402985071</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>2.6865671641791047</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <v>335</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>43.864229765013057</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>47.780678851174933</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>4.438642297650131</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>3.6553524804177546</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>0.26109660574412535</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>18</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>59.333333333333336</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>15.333333333333334</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>6</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>10.59322033898305</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>47.033898305084747</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>41.949152542372879</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
         <v>0.42372881355932202</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>13.471502590673575</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>51.813471502590673</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>31.606217616580309</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>2.3316062176165802</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>0.77720207253886009</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>18.635170603674542</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>46.719160104986877</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>25.984251968503937</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>8.3989501312335957</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>0.26246719160104987</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>381</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>18.635170603674542</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>46.719160104986877</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>25.984251968503937</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>8.3989501312335957</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>0.26246719160104987</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>36.842105263157897</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>36.842105263157897</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>13.157894736842104</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>7.8947368421052628</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>38</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>30.678466076696164</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>51.327433628318587</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>3.5398230088495577</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>12.684365781710914</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>1.7699115044247788</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>339</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>31.299734748010611</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>49.867374005305038</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>3.7135278514588861</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>12.73209549071618</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>2.3872679045092839</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>71.264367816091948</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>12.068965517241379</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>5.7471264367816088</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>6.8965517241379306</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>4.0229885057471266</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>42.076502732240435</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>46.994535519125684</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>9.8360655737704921</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>1.0928961748633881</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>56.30252100840336</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>29.971988795518207</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>7.8431372549019605</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>3.9215686274509802</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>1.9607843137254901</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>42.424242424242422</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>24.242424242424242</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>6.0606060606060606</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>44.686648501362399</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>25.885558583106267</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>4.0871934604904636</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>23.43324250681199</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>1.9073569482288828</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>367</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>44.5</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>24.5</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>5.75</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>23</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>2.25</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>16.748768472906406</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>48.275862068965516</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>26.600985221674875</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>5.4187192118226601</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>2.9556650246305418</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>18.333333333333332</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>47.777777777777779</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>29.444444444444443</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>3.3333333333333335</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>1.1111111111111112</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>17.493472584856399</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>48.041775456919062</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>27.93733681462141</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>4.438642297650131</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>2.0887728459530028</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>17.341040462427745</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>47.398843930635842</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>30.635838150289018</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>4.0462427745664744</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>0.5780346820809249</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>14.146341463414634</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>54.634146341463413</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>17.560975609756099</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>10.731707317073171</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>2.9268292682926829</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>15.608465608465609</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>51.322751322751323</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>23.544973544973544</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>7.6719576719576716</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>1.8518518518518519</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>13.829787234042554</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>48.936170212765958</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>23.936170212765958</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>13.297872340425531</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>21.025641025641026</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>51.282051282051285</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>18.46153846153846</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>7.6923076923076925</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>1.5384615384615385</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>17.493472584856399</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>50.130548302872064</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>21.148825065274153</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>10.443864229765014</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>0.78328981723237601</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>6.875</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>2.8125</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
         <v>89.6875</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>0.625</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>320</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>29.032258064516128</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>53.225806451612904</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>8.064516129032258</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>9.67741935483871</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>10.471204188481675</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>10.99476439790576</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>1.3089005235602094</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>76.701570680628279</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>0.52356020942408377</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>29.25531914893617</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>41.48936170212766</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>10.638297872340425</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>17.021276595744681</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>1.5957446808510638</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>188</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>15.104166666666666</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>50.520833333333336</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>23.958333333333332</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>9.8958333333333339</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>22.105263157894736</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>46.05263157894737</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>17.368421052631579</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>13.421052631578947</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>1.0526315789473684</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>19.064124783362217</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>65.337954939341415</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>11.265164644714039</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>3.4662045060658579</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>0.86655112651646449</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>577</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>28.222222222222221</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>43.555555555555557</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>21.407407407407408</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>5.6296296296296298</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>1.1851851851851851</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1350</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>25.480020757654383</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>50.077841203943954</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>18.370524130773223</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>4.9818370524130771</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>1.0897768552153606</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1927</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>31.884057971014492</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>59.420289855072461</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>5.7971014492753623</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>2.8985507246376812</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>138</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>22.053231939163499</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>61.977186311787072</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>7.2243346007604563</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>8.3650190114068437</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>0.38022813688212925</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>526</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>24.096385542168676</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>61.445783132530117</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>6.927710843373494</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>7.2289156626506026</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>0.30120481927710846</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>664</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>25.563909774436091</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>51.879699248120303</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>12.781954887218046</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>8.2706766917293226</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>1.5037593984962405</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>16.753926701570681</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>50.785340314136128</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>18.32460732984293</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>12.041884816753926</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>2.0942408376963351</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>191</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>20.37037037037037</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>51.23456790123457</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>16.049382716049383</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>10.493827160493828</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>1.8518518518518519</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>36.403508771929822</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>35.964912280701753</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>9.2105263157894743</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>15.789473684210526</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>2.6315789473684212</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>228</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>22.950819672131146</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>43.442622950819676</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>14.754098360655737</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>12.295081967213115</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>6.557377049180328</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>31.714285714285715</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>38.571428571428569</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>11.142857142857142</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>14.571428571428571</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>4</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>35.483870967741936</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>34.193548387096776</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>10.32258064516129</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>18.70967741935484</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>1.2903225806451613</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>33.189655172413794</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>48.706896551724135</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>6.4655172413793105</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>9.0517241379310338</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>2.5862068965517242</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>34.108527131782942</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>42.894056847545222</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>8.0103359173126609</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>12.919896640826874</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>2.0671834625322996</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>14.414414414414415</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>53.153153153153156</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>27.927927927927929</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>4.5045045045045047</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>25.367647058823529</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>47.426470588235297</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>22.426470588235293</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>4.0441176470588234</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>0.73529411764705888</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>22.193211488250654</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>49.086161879895563</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>24.020887728459531</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>4.1775456919060057</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>0.52219321148825071</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>20</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>46.666666666666664</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>20</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>25.277777777777779</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>44.166666666666664</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>21.111111111111111</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>8.6111111111111107</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>360</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>25.066666666666666</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>44.266666666666666</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>20.8</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>9.0666666666666664</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>0.8</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>375</v>
       </c>
     </row>
